--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_3/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_3/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.043</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.738</v>
+        <v>16.552</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.347</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.916</v>
+        <v>17.944</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.27</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.01</v>
+        <v>8.826000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.7025998368051</v>
+        <v>-5.819415602661827</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>30.9186306470482</v>
+        <v>11.69268266445756</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>40.83371424393671</v>
+        <v>16.95137969404392</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>45.36460860581855</v>
+        <v>19.81332070723348</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.49482426982881</v>
+        <v>0.3443469740180731</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>33.57001616723326</v>
+        <v>17.83766650751712</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14.99186014511057</v>
+        <v>-13.42148868451944</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.2573457487491</v>
+        <v>17.27392519371736</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>42.24983211188066</v>
+        <v>36.79210632016472</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>46.78822701888296</v>
+        <v>38.56372677503433</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.79238640474329</v>
+        <v>-4.570900539665452</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34.91648696112157</v>
+        <v>29.34981481264056</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.36005770759333</v>
+        <v>-19.03303055273619</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>32.62145526000491</v>
+        <v>14.02522845181137</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>42.62044767242119</v>
+        <v>35.84822103517033</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>47.15789820247954</v>
+        <v>38.77337760780176</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>18.1585854925322</v>
+        <v>-11.6446525265901</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.27848532121993</v>
+        <v>24.52969367803701</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>14.47209453497687</v>
+        <v>-18.85030479237588</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31.73816222636744</v>
+        <v>10.065923228541</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>41.71274452548494</v>
+        <v>26.96235892347816</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>46.25337520376483</v>
+        <v>32.20193443581159</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17.27243908209476</v>
+        <v>-9.965029176547421</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>34.39711591363834</v>
+        <v>19.31708601488508</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>42.80417259917206</v>
+        <v>21.92445376535308</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>47.91265941586248</v>
+        <v>30.17579600383192</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>24.32791411569833</v>
+        <v>-7.626561942019976</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>41.69970017127979</v>
+        <v>16.31273049052637</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>51.92301886302656</v>
+        <v>28.03249375032107</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>57.0238446824467</v>
+        <v>37.8019557185919</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>44.22587987812077</v>
+        <v>47.53126716014717</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>49.34366404004719</v>
+        <v>55.21121454361034</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>25.66299250858618</v>
+        <v>-5.67576520490508</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>43.0839692670155</v>
+        <v>36.88239361900017</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>53.38530199685164</v>
+        <v>65.31145804880303</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>58.49392278542852</v>
+        <v>72.17554342405907</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>44.59430288643822</v>
+        <v>43.37483358921367</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>49.71116805364207</v>
+        <v>53.01843296317713</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>26.03474400315923</v>
+        <v>-11.84883571684107</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>43.45132632759817</v>
+        <v>34.13708405260586</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>53.75882582837634</v>
+        <v>63.92943415461511</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>58.86609063999763</v>
+        <v>72.09338173885664</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>43.68862068375108</v>
+        <v>30.9356765223616</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>48.80867903459531</v>
+        <v>43.40003868418158</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>25.13838752292202</v>
+        <v>-9.84590452037957</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>42.56014287306855</v>
+        <v>29.71078133120842</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>52.84362521767347</v>
+        <v>51.88480355973832</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>57.95499386204795</v>
+        <v>64.46808325806992</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>16.78059578137835</v>
+        <v>-0.08423570488932697</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>34.69459502676929</v>
+        <v>35.1168394461078</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>44.45497004543771</v>
+        <v>38.12953412929139</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>48.87245492495904</v>
+        <v>40.75726973367564</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>18.9649002748478</v>
+        <v>-3.096863856543024</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>36.72056648198571</v>
+        <v>27.15805220028142</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>18.06475524090801</v>
+        <v>-8.428002971746707</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36.02963353696653</v>
+        <v>39.55573389696539</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45.86768867344492</v>
+        <v>55.62222133520322</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>50.29140145414474</v>
+        <v>56.81915617327657</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>20.25557683041953</v>
+        <v>-9.850059266153576</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.06151675935628</v>
+        <v>36.4424443699113</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>18.42934329848107</v>
+        <v>-13.67201770286183</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>36.38987033401253</v>
+        <v>36.33533425619713</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>46.23476397303776</v>
+        <v>54.57241896773542</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>50.6571274162215</v>
+        <v>56.80957994794531</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>20.61844184465886</v>
+        <v>-17.03150166405072</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>38.41991972170437</v>
+        <v>31.1956831915411</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>17.55071444250895</v>
+        <v>-11.33354987201259</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>35.51641845611883</v>
+        <v>34.49427990647662</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>45.33632110505122</v>
+        <v>48.50743461141826</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>49.76253620628936</v>
+        <v>53.24650357021747</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>19.74139653894787</v>
+        <v>-15.02257776453185</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>37.54815883057324</v>
+        <v>26.10871048261912</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>45.86823299678635</v>
+        <v>32.19264810354917</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>50.82165395174589</v>
+        <v>38.16133351338485</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>27.08814178914881</v>
+        <v>-8.481478284794917</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>45.16040196517562</v>
+        <v>27.8379457680319</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>55.2808837083907</v>
+        <v>38.37222177190057</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>60.26040843706737</v>
+        <v>47.25769197117666</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>47.28474461103774</v>
+        <v>54.20994342458901</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>52.24616240882877</v>
+        <v>59.20865954949229</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.41554975991119</v>
+        <v>-10.66549735250802</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>46.53835563911532</v>
+        <v>43.94302983508857</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>56.73728647511983</v>
+        <v>69.33940538532381</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>61.72320423545024</v>
+        <v>74.83752927081126</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>47.64985565485995</v>
+        <v>49.40297828534538</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>52.60997811136586</v>
+        <v>56.19780776841193</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.78307565794766</v>
+        <v>-17.53850807298512</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>46.90120114904823</v>
+        <v>40.17892841100701</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>57.10660343578145</v>
+        <v>66.65301235917833</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>62.09073030143589</v>
+        <v>73.26270028777157</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>46.75330853653534</v>
+        <v>37.65875612916903</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>51.71723160526492</v>
+        <v>47.34201565047788</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>27.89709713206983</v>
+        <v>-13.39215347306624</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>46.02095351369357</v>
+        <v>37.59112369083896</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>56.20177303772955</v>
+        <v>57.49585226650414</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>61.19074350398579</v>
+        <v>68.61359775404638</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.1543366416248</v>
+        <v>-1.691966838027945</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>33.1576330539368</v>
+        <v>30.14885950655912</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>43.07060156810267</v>
+        <v>35.53816804720064</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>47.42625513847931</v>
+        <v>36.52892967195673</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>17.52479029849856</v>
+        <v>1.180641046338316</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>35.37018085504465</v>
+        <v>31.12571776119389</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>16.43860395455464</v>
+        <v>-7.95697062041701</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>34.49298526543749</v>
+        <v>36.93725015832845</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>44.48405848246042</v>
+        <v>55.28709913540728</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>48.84579190109718</v>
+        <v>54.75292700804191</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>18.81587080605107</v>
+        <v>-3.804485599995292</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>36.71173838227949</v>
+        <v>42.4917792879363</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>16.80507799910337</v>
+        <v>-12.63320531949455</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>34.85507945003547</v>
+        <v>34.41735181950355</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>44.85294049284551</v>
+        <v>54.92987430957434</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>49.2133487261012</v>
+        <v>55.38308806964667</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>19.1805265008627</v>
+        <v>-10.20452228189593</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>37.07190234640561</v>
+        <v>38.16116561767376</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>15.92290766113664</v>
+        <v>-11.52936125084707</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>33.97813648362542</v>
+        <v>31.24811178939204</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>43.95105883888642</v>
+        <v>47.71079066011676</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>48.3152837987703</v>
+        <v>50.62598315298963</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>18.30013267470717</v>
+        <v>-8.933026521416338</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>36.19684574371502</v>
+        <v>32.29208841934545</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>44.66815894930527</v>
+        <v>38.43889873452065</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>49.56091848354076</v>
+        <v>41.95344012246174</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>25.6348889307758</v>
+        <v>-6.499824122990528</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>43.79551506986959</v>
+        <v>29.87028443659194</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>54.05886705470064</v>
+        <v>42.36706144819438</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>58.98087831103445</v>
+        <v>48.58489749456995</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>46.08568724573461</v>
+        <v>62.42566713520823</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>50.9862944509166</v>
+        <v>64.83353938395078</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>26.96263309899032</v>
+        <v>-6.677113970202026</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>45.17400247790236</v>
+        <v>48.28566638965054</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>55.51619940535326</v>
+        <v>75.52323694651535</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>60.44446145185115</v>
+        <v>78.25868778368762</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>46.45250830763448</v>
+        <v>58.54542107852759</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>51.35184229711114</v>
+        <v>62.67793419794977</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>27.33189671882692</v>
+        <v>-12.77420339316027</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>45.53855710391514</v>
+        <v>45.42927076297408</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>55.88717534149164</v>
+        <v>73.75488307288501</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>60.81366668039851</v>
+        <v>77.53805894311213</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>45.55272113610822</v>
+        <v>46.20601971408655</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>50.45582455775322</v>
+        <v>53.17384933829725</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>26.44261345017479</v>
+        <v>-9.623862689996386</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>44.65505773637076</v>
+        <v>41.81020446698429</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>54.97914439115247</v>
+        <v>63.79085086975968</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>59.91045039415125</v>
+        <v>71.98864507737937</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>5.572964836176126</v>
+        <v>-2.025816227046917</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>22.5472224968306</v>
+        <v>12.48024875105717</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.34000811102104</v>
+        <v>16.28827212376246</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>36.7692288497623</v>
+        <v>18.76115621618109</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>8.517381486267773</v>
+        <v>3.847721632047929</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.35330493905057</v>
+        <v>17.27842645180272</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>6.841457211410429</v>
+        <v>-9.788382028802893</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>23.86465561928771</v>
+        <v>17.42537122281551</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>33.73408280460963</v>
+        <v>34.95514863377072</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>38.17062270059909</v>
+        <v>36.54084134269656</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>9.794150216251893</v>
+        <v>-1.620564427458746</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.67847192848564</v>
+        <v>27.65724694793878</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>7.213358046622815</v>
+        <v>-15.27838747123668</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>24.23257710033028</v>
+        <v>14.25316714356483</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>34.10844880890576</v>
+        <v>33.93441132833381</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>38.54408154098201</v>
+        <v>36.65796468548953</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>10.16388533555543</v>
+        <v>-8.62072589349863</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>27.04411607248973</v>
+        <v>22.87186575085542</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6.32088758634346</v>
+        <v>-14.85830546800798</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>23.34459796444341</v>
+        <v>10.80692516793045</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>33.19626047351688</v>
+        <v>25.7576877461769</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>37.63499119334026</v>
+        <v>30.54099676271066</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>9.273554292326132</v>
+        <v>-6.71023022627082</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>26.15838492448169</v>
+        <v>18.23796099546684</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>34.4749674803561</v>
+        <v>19.27385994513191</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>39.47942879130817</v>
+        <v>26.86863086071689</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>16.74749683928369</v>
+        <v>-3.382532416593257</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>33.8964561733978</v>
+        <v>16.5451001239245</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>44.01999937658648</v>
+        <v>25.16581080376025</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>49.02069919007332</v>
+        <v>34.58235960869568</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>35.87465018104012</v>
+        <v>43.29808139718043</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>40.88821414386449</v>
+        <v>50.46162056929519</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>18.06257802690126</v>
+        <v>-1.815509230611802</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>35.26022343668333</v>
+        <v>36.09090627086333</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>45.46110751590211</v>
+        <v>60.96699185428746</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>50.46942955806876</v>
+        <v>67.64712804034018</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>36.24666349088747</v>
+        <v>39.09843130325083</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>41.25934074156399</v>
+        <v>48.16643155577232</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>18.43760175665322</v>
+        <v>-8.018172190731317</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>35.63094410865706</v>
+        <v>33.23926427255579</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>45.83793693730424</v>
+        <v>59.41420574944713</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>50.84493704582364</v>
+        <v>67.33992541831248</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>35.33681183779095</v>
+        <v>27.43419198611504</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>40.35260565968483</v>
+        <v>39.06685764524308</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>17.53742344260823</v>
+        <v>-6.037844444559806</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>34.73579355823699</v>
+        <v>29.12685353331358</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>44.91896023114019</v>
+        <v>47.92373275934698</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>49.92998205170277</v>
+        <v>59.99190619862212</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>14.60909860752206</v>
+        <v>1.482151312287977</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>31.89030922416536</v>
+        <v>30.60821796448798</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>41.69769173301253</v>
+        <v>36.59373369928667</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>46.23341903299936</v>
+        <v>38.54731077475893</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>17.61712458471848</v>
+        <v>5.748600634019631</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>34.7514212509285</v>
+        <v>32.82334966999383</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>15.89154190392185</v>
+        <v>-3.911125326568914</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>33.22225588166871</v>
+        <v>38.53808386719339</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>43.1065234089385</v>
+        <v>58.84361038537646</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>47.64955243599046</v>
+        <v>59.59051947376634</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>18.90784577897945</v>
+        <v>1.568952564860087</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>36.09108956867414</v>
+        <v>45.05719438179969</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>16.25773690845363</v>
+        <v>-8.365534740316356</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>33.58430038316634</v>
+        <v>36.46147533647588</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>43.47508027948327</v>
+        <v>59.11281691673277</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>48.01708987526426</v>
+        <v>60.91920658747865</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>19.27181609112639</v>
+        <v>-4.665815821005019</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>36.45080371728071</v>
+        <v>41.11615019751824</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>15.37533080438305</v>
+        <v>-7.690981416698506</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>32.70667187875824</v>
+        <v>33.11109236371463</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>42.57311313077712</v>
+        <v>50.71035046774678</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>47.11845033235387</v>
+        <v>54.79332838212069</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>18.3916814133898</v>
+        <v>-2.276255509131079</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>35.57554565761072</v>
+        <v>36.84200594090963</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>43.91077850895572</v>
+        <v>41.19246540002298</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>49.0156445844114</v>
+        <v>47.10404751715228</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>25.16905568642711</v>
+        <v>-6.141051864257633</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>42.60957328203405</v>
+        <v>26.00248082592204</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>52.74512292126813</v>
+        <v>39.63244771573966</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>57.84576897355196</v>
+        <v>48.05228372193533</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>45.32522424151526</v>
+        <v>67.68971519296713</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>50.43915564499967</v>
+        <v>72.77344290746612</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>26.49608708766278</v>
+        <v>-5.11255265736202</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>43.98584179157076</v>
+        <v>45.56019295315554</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>54.19892896779149</v>
+        <v>75.89257011468634</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>59.30714525791689</v>
+        <v>81.1713565171425</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>45.69135468182193</v>
+        <v>64.45745428338488</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>26.86552371014887</v>
+        <v>-10.78459781348277</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>44.35081559083805</v>
+        <v>43.30982220758452</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>54.5700641486209</v>
+        <v>75.06193775513222</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>59.67684659569462</v>
+        <v>81.47918069075152</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>44.7918845405205</v>
+        <v>52.76548033117493</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>49.90816358663713</v>
+        <v>62.46062997226478</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>25.9753854675511</v>
+        <v>-6.934374103664048</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>43.46596756322415</v>
+        <v>40.93398971114726</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>53.66128842205677</v>
+        <v>65.07943191698755</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>58.77232853298369</v>
+        <v>75.86744051163876</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-9.9187922509103</v>
+        <v>-5.661982515622441</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>7.5301211203995</v>
+        <v>34.46309625312136</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>16.76091941868356</v>
+        <v>38.4708954287356</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>20.69226821531318</v>
+        <v>38.5138708084372</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-7.028123658322158</v>
+        <v>-2.032528655819817</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>10.26084790731875</v>
+        <v>36.96012911258357</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-8.737786110768184</v>
+        <v>-12.30072655700204</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>8.759934590685745</v>
+        <v>40.03041207267815</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>18.06483966491446</v>
+        <v>56.88252156623255</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>22.00183303450274</v>
+        <v>55.45042327709608</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-5.839972537074246</v>
+        <v>-6.963522886744293</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>11.49723063219108</v>
+        <v>47.31686968510272</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-8.369827801581891</v>
+        <v>-16.46005348895012</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>9.123391726077251</v>
+        <v>37.95531702290068</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>18.43491778667633</v>
+        <v>57.036682378005</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>22.37092525098674</v>
+        <v>56.45035919680936</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-5.474325047316867</v>
+        <v>-12.84164719678649</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>11.858285184883</v>
+        <v>43.46003692864014</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-9.242209260563897</v>
+        <v>-13.29306050450644</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>8.256553201729893</v>
+        <v>37.6186930615907</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>17.54406874158147</v>
+        <v>52.38024083021251</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>21.48329661836164</v>
+        <v>54.02524327893536</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-6.344053395002717</v>
+        <v>-10.06053667636137</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>10.99418128022036</v>
+        <v>40.05863168277839</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>18.92608959928498</v>
+        <v>44.89876062873861</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>23.37905987258381</v>
+        <v>47.68565184789435</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0.7168297000586108</v>
+        <v>-9.426975879439659</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>18.29961400034445</v>
+        <v>32.90011915248169</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>27.88809483855151</v>
+        <v>44.14184338812002</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>32.36085015705412</v>
+        <v>50.13623586009953</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>20.23456123227085</v>
+        <v>67.80413523653088</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>24.69482868409446</v>
+        <v>69.45281718436067</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>1.939233778088536</v>
+        <v>-10.9464628454002</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.23379624444075</v>
+        <v>74.4390774174109</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>33.71236330832247</v>
+        <v>77.06060689315345</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>20.60209273836682</v>
+        <v>64.49179064706192</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>25.06140257778278</v>
+        <v>67.6529062320147</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>2.309191869631206</v>
+        <v>-16.50494084627239</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.93567865528801</v>
+        <v>46.24758381347106</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.6051975654763</v>
+        <v>73.17007265504306</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>34.08235421937901</v>
+        <v>76.64951129860454</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>19.71421048727613</v>
+        <v>54.49409958749499</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>24.1767360840373</v>
+        <v>60.2694850123624</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>1.431414713600972</v>
+        <v>-10.89025051090629</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>19.06393181967745</v>
+        <v>46.07101207502372</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.70989166326062</v>
+        <v>66.53368487053838</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>33.1912190079731</v>
+        <v>74.09861892177808</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-15.09475105230253</v>
+        <v>-6.64988036709773</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>2.281292097940934</v>
+        <v>7.519933804255851</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>11.83123864473458</v>
+        <v>14.36150611388211</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>15.73365520686961</v>
+        <v>15.73602904249653</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-12.5141713371423</v>
+        <v>0.8293862496440703</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>4.722754361680956</v>
+        <v>19.48337764701058</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-13.89867052912277</v>
+        <v>-15.85956316254263</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>3.526282962826372</v>
+        <v>10.21141254530844</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>13.15184244449762</v>
+        <v>29.65954812903375</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>17.06039513038355</v>
+        <v>29.89055131133544</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-11.31029791149076</v>
+        <v>-3.885256743621532</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>5.974993970196358</v>
+        <v>30.04681219801306</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-13.52338952607113</v>
+        <v>-21.89353890938335</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>3.897208780638309</v>
+        <v>6.260120111316233</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>13.52932651270734</v>
+        <v>27.80522511675293</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>17.43709530389736</v>
+        <v>29.04522948927998</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-10.93681333881919</v>
+        <v>-10.7700457017148</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>6.344008542104405</v>
+        <v>25.11919271623995</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-14.41438492959253</v>
+        <v>-20.26880532152383</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>3.011518861927883</v>
+        <v>4.165508387083394</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>12.61944649595996</v>
+        <v>21.69011116448399</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>16.53003981142043</v>
+        <v>25.04313014178088</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-11.82620025577505</v>
+        <v>-9.381354369456744</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>5.460036633685917</v>
+        <v>19.95095819524758</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>13.62125450015472</v>
+        <v>23.7378507534486</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>18.06993497513152</v>
+        <v>30.44572252196167</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-3.994614028678001</v>
+        <v>-5.652733323147167</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>13.511426705213</v>
+        <v>20.02113115738928</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>23.36528100801158</v>
+        <v>31.02039628433766</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>27.82448847486865</v>
+        <v>38.79995956362679</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>14.94693165568872</v>
+        <v>46.35154876717043</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>19.40349573471165</v>
+        <v>52.5207952140724</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-2.753185126110381</v>
+        <v>-3.440333904400529</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>14.80146661383234</v>
+        <v>39.68939698511262</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>24.73150633048452</v>
+        <v>65.03383393211116</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.19708842452275</v>
+        <v>70.02855667310439</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>15.32240133725038</v>
+        <v>41.87997176074833</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>19.77822127815002</v>
+        <v>49.83605622034724</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-2.375191697917941</v>
+        <v>-9.234853887753683</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>15.17482284297862</v>
+        <v>37.02664410124188</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>25.11106581250004</v>
+        <v>63.43585653890928</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.57544470020311</v>
+        <v>69.58287001504381</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>14.41439530283171</v>
+        <v>30.66332313835809</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>18.87302120660256</v>
+        <v>41.04777422998237</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-3.273159968285938</v>
+        <v>-7.405560308334579</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>14.2826299060392</v>
+        <v>32.74676023875952</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>24.19509304929642</v>
+        <v>52.84716104666425</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.66323284195271</v>
+        <v>62.93457207858761</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-12.61358823144464</v>
+        <v>-13.05967759820242</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>4.649626142356901</v>
+        <v>3.922856491613107</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>14.17438547842833</v>
+        <v>8.079413795522699</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>18.38438745222437</v>
+        <v>11.18010776518089</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-9.532164690782409</v>
+        <v>-11.79195507488526</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>7.582416714847589</v>
+        <v>2.882812632197025</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-11.38782247390866</v>
+        <v>-22.14603834151834</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>5.924541505037347</v>
+        <v>7.657707873001874</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>15.5246749955801</v>
+        <v>25.58371116156508</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>19.74155163003758</v>
+        <v>27.62493407239252</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-8.29815444505978</v>
+        <v>-20.07152534974467</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>8.865020753244039</v>
+        <v>10.53465995064335</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-11.00727427754954</v>
+        <v>-27.6853166402869</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>6.300829311668203</v>
+        <v>4.452306104471637</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>15.90742101517118</v>
+        <v>24.57901969112151</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>20.12350627868256</v>
+        <v>27.71834896632812</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-7.919920431335612</v>
+        <v>-27.33821320691506</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>9.238892646550148</v>
+        <v>5.506701531827135</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-11.9116691551702</v>
+        <v>-26.3534329029367</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>5.401419706766539</v>
+        <v>1.888792376737985</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>14.98397985244607</v>
+        <v>17.23247375860323</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>19.20298288196543</v>
+        <v>22.58127303275432</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-8.821873827852372</v>
+        <v>-23.9473495101079</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>8.342018546653485</v>
+        <v>2.325833312993966</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>16.46445280933752</v>
+        <v>8.114833231909945</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>21.23885091843125</v>
+        <v>15.35509988683144</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-1.332697274094258</v>
+        <v>-17.33479386478321</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.07782615507014</v>
+        <v>3.346224930969772</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.93743799620892</v>
+        <v>13.45266025351588</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>30.70955303329498</v>
+        <v>24.15516797123115</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>17.82036437094403</v>
+        <v>29.43638167488073</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>22.60337988866697</v>
+        <v>36.05386220436266</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-0.06180464625930426</v>
+        <v>-19.55076910639956</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>17.39758426423571</v>
+        <v>19.23562640027515</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>27.33325009053162</v>
+        <v>45.37607378945842</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>32.11253225741874</v>
+        <v>53.17216680082417</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>18.20060569504031</v>
+        <v>24.98817813852268</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>22.98284796706474</v>
+        <v>33.4660505133439</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>0.3213114141342999</v>
+        <v>-26.1034827305392</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>17.77613481720337</v>
+        <v>16.05970552756122</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>27.71791546716064</v>
+        <v>43.46382959792513</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>32.49599879017366</v>
+        <v>52.45762698685344</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>17.27981058967981</v>
+        <v>14.69283434821689</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>22.06499332552749</v>
+        <v>25.86120403934473</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-0.58961320807758</v>
+        <v>-21.63201177356397</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>16.87069522186562</v>
+        <v>14.3657726261115</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>26.78884747237002</v>
+        <v>34.47522435767598</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>31.57075924620212</v>
+        <v>47.74697164684879</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>5.58090912451766</v>
+        <v>-1.351350379239651</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>23.63515031426293</v>
+        <v>39.4894449437359</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>33.30924497498329</v>
+        <v>47.33060888802487</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>37.38195804395972</v>
+        <v>48.22657932774035</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>7.657323272585337</v>
+        <v>-8.517626340556362</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.54279803044302</v>
+        <v>28.08035334198356</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>6.806436351140697</v>
+        <v>-8.302970582563788</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>24.9107683324802</v>
+        <v>45.35795205893923</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>34.6611479362695</v>
+        <v>66.68946177806632</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.73967058471831</v>
+        <v>65.90865695002825</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>8.889310730194502</v>
+        <v>-14.13269071251771</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>26.82428602926869</v>
+        <v>38.42978273097923</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>7.168616783126268</v>
+        <v>-13.08836123584943</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>25.26823399312942</v>
+        <v>42.79425406042343</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>35.02529733190475</v>
+        <v>66.53922966194835</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>39.10271851836373</v>
+        <v>66.62246608447818</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>9.249900245994723</v>
+        <v>-20.33493951973998</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>27.18006803692835</v>
+        <v>34.38615125336862</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>6.301870078527763</v>
+        <v>-11.81943711399377</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>24.40744154450226</v>
+        <v>40.24815969076332</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>34.14010148148023</v>
+        <v>59.68612595970166</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>38.22093892032562</v>
+        <v>62.19505248217187</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>8.384529475775665</v>
+        <v>-18.28055631492478</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.32072692133239</v>
+        <v>29.89072872628532</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>34.62424312814567</v>
+        <v>36.46463081407774</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>39.21668903925558</v>
+        <v>40.23231393881044</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>15.13524658136093</v>
+        <v>-14.33659120185582</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>33.29126611438998</v>
+        <v>27.23902922352529</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>43.28394668784026</v>
+        <v>41.1325230123834</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>47.89464484503615</v>
+        <v>47.49035104093209</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>35.97987193864746</v>
+        <v>59.8719984917899</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>40.57981228379896</v>
+        <v>62.37121254734707</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>16.40094522258215</v>
+        <v>-16.01407098286615</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>34.60671726869591</v>
+        <v>43.7492402300738</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>44.67622583254062</v>
+        <v>72.59533491038619</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>49.29287661355298</v>
+        <v>75.3382484613975</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>36.34218091948354</v>
+        <v>56.50341978421511</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>40.94106320629827</v>
+        <v>60.58990727296607</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>16.76600721494535</v>
+        <v>-21.72177198700339</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>34.96679335143875</v>
+        <v>41.36524844401438</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>45.04259965960921</v>
+        <v>71.49734046038378</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>49.65772424148501</v>
+        <v>75.14406954604591</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.45869692737257</v>
+        <v>45.32684897853222</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>40.06096434587582</v>
+        <v>52.23964188209374</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>15.89233244701726</v>
+        <v>-16.96917043437304</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>34.09951391281124</v>
+        <v>39.90637688527436</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>44.1513805771858</v>
+        <v>63.57360686636241</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>48.77087756412738</v>
+        <v>71.58673046893676</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-8.427546479264819</v>
+        <v>-6.109220790802681</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>8.278457940173865</v>
+        <v>3.813370624537784</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>17.4339095137878</v>
+        <v>5.022573955616691</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>21.37555461971211</v>
+        <v>8.364211828215046</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-6.201358655577977</v>
+        <v>-2.141077398472657</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>10.3743504831525</v>
+        <v>9.209482604379559</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-7.235422847616434</v>
+        <v>-13.34364416093493</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>9.518602834491247</v>
+        <v>8.355134270707232</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>18.74763464759156</v>
+        <v>21.29386166910118</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>22.69527638932998</v>
+        <v>23.76292447499004</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-5.002508225341259</v>
+        <v>-5.296580391772515</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>11.62066948057018</v>
+        <v>21.11924516642727</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-6.868365314439387</v>
+        <v>-19.28406192373905</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>9.881681118224911</v>
+        <v>4.223808948784379</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>19.11723257460751</v>
+        <v>19.00196022011616</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>23.06399525312015</v>
+        <v>22.66007116195062</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-4.637155176431804</v>
+        <v>-12.82514327276164</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>11.98191966853237</v>
+        <v>15.26606714065205</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-7.742541825780123</v>
+        <v>-19.40295858325476</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>9.012038948788373</v>
+        <v>-0.2084843037709874</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>18.22378886367301</v>
+        <v>10.82395408870959</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>22.17354613811952</v>
+        <v>16.70767973049571</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-5.509806898019562</v>
+        <v>-14.67200610842903</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>11.11393302767522</v>
+        <v>6.21860921344795</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>18.88518091309751</v>
+        <v>8.863277980098426</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>23.35382981935897</v>
+        <v>17.1856877600137</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>2.462016677344664</v>
+        <v>-5.717449036774632</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>19.31591380216341</v>
+        <v>11.38371516836675</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.79047427720206</v>
+        <v>17.5654238318887</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>33.27769444522402</v>
+        <v>28.23978279249334</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>20.20304682810295</v>
+        <v>32.03114777187402</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>24.67942715471568</v>
+        <v>40.11900391614759</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>3.698361723457651</v>
+        <v>-2.262430362579572</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>20.59994129553981</v>
+        <v>32.00835945444351</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>30.14881601513257</v>
+        <v>51.70850118516505</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>34.64228887856527</v>
+        <v>59.98631097036433</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.57074631489824</v>
+        <v>26.41585416091298</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>25.04630502391233</v>
+        <v>36.49304117477662</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>4.067970974891956</v>
+        <v>-9.02965018892672</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>20.96525867440806</v>
+        <v>28.04868624705018</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>30.52033930898352</v>
+        <v>48.54931667542401</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>35.01253343493704</v>
+        <v>58.22632689262338</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>19.67903917659298</v>
+        <v>11.56352468045004</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>24.1575423283542</v>
+        <v>24.16990555791599</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>3.187103941250186</v>
+        <v>-10.60254408566639</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>20.08945744147885</v>
+        <v>19.69305498112832</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.62106906407731</v>
+        <v>34.07737234264442</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>34.1171604677509</v>
+        <v>47.80661178001449</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>1.539537252075135</v>
+        <v>-16.46878803725708</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>18.80161610801291</v>
+        <v>11.43156052893929</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.1866204692591</v>
+        <v>13.55509005054385</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.30827142791777</v>
+        <v>14.04051328942347</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>4.363980615999409</v>
+        <v>-1.858307239582487</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>21.47752107094272</v>
+        <v>26.35856047927189</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>2.760001601871863</v>
+        <v>-23.28929817156937</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>20.07134754602916</v>
+        <v>16.95283368127791</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.53118421737886</v>
+        <v>31.23061375218757</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>33.65857673046452</v>
+        <v>30.39023850976039</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>5.591496958214378</v>
+        <v>-7.025179432728329</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>22.75371695083856</v>
+        <v>36.73948630380002</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>3.125380083293336</v>
+        <v>-27.47110113854663</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>20.43256184125926</v>
+        <v>14.78828513277227</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.89898262617081</v>
+        <v>31.02175463570654</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>34.0251775419968</v>
+        <v>31.1601687221099</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>5.954640439468861</v>
+        <v>-13.13448126010855</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>23.11258666534663</v>
+        <v>32.55614536594281</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>2.253318126834799</v>
+        <v>-24.58555132540616</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>19.56536455789126</v>
+        <v>13.66375921154989</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.00768952703826</v>
+        <v>26.0088862173825</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>33.13745184864847</v>
+        <v>28.42245477136932</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>5.08513168309554</v>
+        <v>-10.91933789739085</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>22.24805575564497</v>
+        <v>27.96938919246798</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>30.27756487013674</v>
+        <v>32.91038904035603</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>34.92414920593827</v>
+        <v>35.88896149074785</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>12.66796117833201</v>
+        <v>-6.934088798255214</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.10228433339427</v>
+        <v>27.14615152990541</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>39.8611200735245</v>
+        <v>37.54943387339046</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>44.53772648091535</v>
+        <v>43.63469701847097</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>31.62660093749168</v>
+        <v>55.25270338958841</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>36.28063619608768</v>
+        <v>57.27311359016144</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>13.93185652714968</v>
+        <v>-7.455074689719147</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>31.41511813245081</v>
+        <v>44.26001770946215</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>41.2496362033767</v>
+        <v>68.79606516264525</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>45.9321679484822</v>
+        <v>71.65040234908463</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>31.99194049429286</v>
+        <v>51.39812371132415</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>36.64482120063644</v>
+        <v>55.08337778628719</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>14.29920868362795</v>
+        <v>-13.39661001298959</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>31.77796720753413</v>
+        <v>41.34685258828304</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>41.61871701621475</v>
+        <v>66.85837189904527</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>46.29961672769214</v>
+        <v>70.72910294851727</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.10348819184578</v>
+        <v>40.5940796757778</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>35.75990323000264</v>
+        <v>46.90587290490968</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>13.42149491762427</v>
+        <v>-9.381049862154317</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>30.90569616896401</v>
+        <v>38.96009396199474</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>40.72273280478724</v>
+        <v>58.30585383787239</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>45.40816952623179</v>
+        <v>66.31651479547345</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>8.236267877816758</v>
+        <v>-1.723145785635907</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>25.17787378140002</v>
+        <v>11.0371237178185</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>34.71231561432796</v>
+        <v>13.30087040409848</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>38.8776145892012</v>
+        <v>15.23675851868375</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>10.51598766321986</v>
+        <v>-4.031283092368383</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>27.320188683373</v>
+        <v>6.395237025096804</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>9.466681416766356</v>
+        <v>-11.11538877384316</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>26.45693002874365</v>
+        <v>13.1904824961065</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>36.06666314650813</v>
+        <v>27.2477774842526</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>40.23805959682051</v>
+        <v>28.2854269077196</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>11.75313598017099</v>
+        <v>-11.60181222856394</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.60541523977113</v>
+        <v>13.51876631041403</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>9.826810924532147</v>
+        <v>-16.68328459570093</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>26.81312028574187</v>
+        <v>9.560001410618195</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>36.42935106503545</v>
+        <v>25.46158648750036</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>40.59956235443515</v>
+        <v>27.57017562404186</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>12.11154533854716</v>
+        <v>-18.72163996676284</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.9597658859558</v>
+        <v>8.234327513503256</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>8.96310706655062</v>
+        <v>-15.52117337806435</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>25.95396610916769</v>
+        <v>7.004773416659091</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>35.54615414348675</v>
+        <v>19.14806635400129</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>39.7198315101809</v>
+        <v>23.24935812369937</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>11.24943919592081</v>
+        <v>-17.04740047182413</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.10233376333726</v>
+        <v>3.42481640510959</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>36.23108205045683</v>
+        <v>7.806520438885503</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>40.92658509632054</v>
+        <v>13.74647937887008</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>19.27596575963022</v>
+        <v>-5.843478994103222</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>36.40158420262726</v>
+        <v>12.94081678035959</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>46.29125068884025</v>
+        <v>19.81850834814425</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>51.01562010012255</v>
+        <v>27.33647292763745</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>37.58951812323226</v>
+        <v>26.37222058583895</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>42.2928667707673</v>
+        <v>31.94568675702499</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>20.55162445626679</v>
+        <v>-6.938673807673897</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>37.72558185524606</v>
+        <v>28.7057872122439</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>47.69135914767926</v>
+        <v>49.38052058769622</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>52.42203239674473</v>
+        <v>54.20539480786363</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>37.95026918021926</v>
+        <v>21.33615381132559</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>42.65248256855429</v>
+        <v>28.70125869706402</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>20.91434786641128</v>
+        <v>-13.57598601867488</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>38.08402493165485</v>
+        <v>25.04250904023669</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>48.05596022851299</v>
+        <v>46.61738244700294</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>52.78501323696092</v>
+        <v>52.5854459145594</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>37.06894415839044</v>
+        <v>10.56610392896558</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>41.7745762179639</v>
+        <v>20.19348344030113</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>20.04364154484888</v>
+        <v>-11.43362053725571</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>37.21845384281234</v>
+        <v>21.10679343981377</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>47.16670564889304</v>
+        <v>36.57849773521502</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>51.90018990202294</v>
+        <v>46.36138590314093</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-5.31680575515513</v>
+        <v>-5.086745056993543</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>10.80278809147628</v>
+        <v>0.590803703755606</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>19.84404040227314</v>
+        <v>0.1377161618482461</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>23.74335600319452</v>
+        <v>0.9954392095894367</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-2.763866768321265</v>
+        <v>-5.08586540506877</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>13.2272383790009</v>
+        <v>-0.4311407799315319</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-4.150052154748124</v>
+        <v>-16.11605173037344</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>12.01620809938495</v>
+        <v>0.2795553047487598</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>21.12948596858623</v>
+        <v>10.63016952389505</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>25.03449030692563</v>
+        <v>10.7672191788772</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-1.59040339306803</v>
+        <v>-14.49224167203628</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>14.44682301157004</v>
+        <v>3.928256724046534</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-3.791177309641583</v>
+        <v>-21.78037473675406</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>12.37140702132873</v>
+        <v>-3.578318928576628</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>21.49095051012642</v>
+        <v>8.382206084154349</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.39490456667308</v>
+        <v>9.587422877328446</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-1.233536043522406</v>
+        <v>-21.75788364827454</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>14.79989727181817</v>
+        <v>-1.643508727612314</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-4.64460958747793</v>
+        <v>-18.56704592827474</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>11.52208981293084</v>
+        <v>-3.796164419213564</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>20.618496284358</v>
+        <v>4.888402719039707</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>24.52564810530454</v>
+        <v>7.886813447362085</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-2.084810622653038</v>
+        <v>-18.28858415827405</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>13.95286504967137</v>
+        <v>-4.287400433812397</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>21.66767266943595</v>
+        <v>0.02254510534598175</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>26.08414083524555</v>
+        <v>3.984012364210136</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>6.308339975306303</v>
+        <v>-3.856792873164064</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>22.62892037703276</v>
+        <v>8.746199263485018</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.04013239835411</v>
+        <v>13.63977454288275</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>36.4875431497623</v>
+        <v>19.84384871920952</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>22.9573258534918</v>
+        <v>15.01388283748305</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.38117446905488</v>
+        <v>18.7030024188023</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>7.520408382057092</v>
+        <v>-6.643627798461576</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>23.88736846902457</v>
+        <v>21.76761083806405</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>33.37151217738828</v>
+        <v>39.6587712322695</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>37.82484015680863</v>
+        <v>43.38229311199208</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>23.31658708262313</v>
+        <v>9.556865640961821</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.73942822164847</v>
+        <v>15.00391092458977</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>7.881176058830405</v>
+        <v>-13.52725017820974</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>24.24410783085979</v>
+        <v>17.65464629433419</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>33.73419749350953</v>
+        <v>36.30559223454255</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>38.18605249767315</v>
+        <v>41.16493118645737</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>22.44653021245414</v>
+        <v>1.451696544568549</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>26.87253270284332</v>
+        <v>8.98945004563927</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>7.021981521408087</v>
+        <v>-9.985429658316406</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>23.38963772016615</v>
+        <v>15.48878884411725</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>32.85691968171073</v>
+        <v>28.46948060490679</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>37.31290454361142</v>
+        <v>36.91417010505683</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-13.63991923461124</v>
+        <v>5.914700102116953</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>3.650409811798546</v>
+        <v>23.33743110859702</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>13.29273207542556</v>
+        <v>26.97090230041683</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>17.48496744586775</v>
+        <v>29.78402098912233</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-10.80856917002495</v>
+        <v>-2.19096008653144</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>6.339721152361982</v>
+        <v>12.51435759951965</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-12.40569003808756</v>
+        <v>0.6713535574522478</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>4.933899403173591</v>
+        <v>31.18096446249442</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>14.6524901015371</v>
+        <v>49.23532835499954</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>18.85175187918779</v>
+        <v>50.93601819837416</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-9.56591522221531</v>
+        <v>-6.125108242103963</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>7.631095379451985</v>
+        <v>24.83227571555688</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>-12.02239570915233</v>
+        <v>-4.595220973222801</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>5.31295196049502</v>
+        <v>28.2458758595738</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>15.03807830179396</v>
+        <v>48.64305774339739</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>19.23662758385801</v>
+        <v>51.48484294324918</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-9.184632803491255</v>
+        <v>-12.78830745727221</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>8.008027685318275</v>
+        <v>20.4207327242481</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-12.93375337741882</v>
+        <v>-7.514927792289317</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>4.40655504599021</v>
+        <v>21.22579989834267</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>14.1073717821637</v>
+        <v>36.42653153179403</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>18.30869405171061</v>
+        <v>41.59399880131551</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-10.09416948512549</v>
+        <v>-13.02994628285601</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>7.103551762116339</v>
+        <v>13.39614124452354</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>15.30532241222859</v>
+        <v>14.195193869229</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>20.0679286428942</v>
+        <v>20.90521058621807</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-2.270302335117051</v>
+        <v>-5.349234495077727</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>15.16124438310047</v>
+        <v>16.51160453575207</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.12369475553728</v>
+        <v>25.31567700753893</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.87938455052343</v>
+        <v>33.57159094651365</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>16.67083911915018</v>
+        <v>40.73079076544294</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>21.4422454232185</v>
+        <v>46.79812368641922</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>-0.989644740706467</v>
+        <v>-2.239319008540765</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>16.49087566523446</v>
+        <v>38.11001028292857</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>26.53027397568952</v>
+        <v>63.72992857373588</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>31.29328924122603</v>
+        <v>68.98624808591545</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>17.0542357606847</v>
+        <v>37.03104328871352</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>21.8249536900768</v>
+        <v>45.03304357641245</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-0.6035043821559327</v>
+        <v>-8.105495699357277</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>16.87247766892145</v>
+        <v>35.66871869208929</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>26.91808295364596</v>
+        <v>62.70279500962639</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>31.67997827075106</v>
+        <v>69.22732740597931</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>16.12552873701416</v>
+        <v>22.51040300814475</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>20.89903312106595</v>
+        <v>33.3380411074358</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-1.522027885873584</v>
+        <v>-8.165997560230004</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>15.95940184105889</v>
+        <v>29.25452728516367</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>25.98106904807341</v>
+        <v>48.43826863910518</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>30.74664709242864</v>
+        <v>59.39191972280705</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>9.156900380314497</v>
+        <v>6.120442862618066</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>26.36202464558665</v>
+        <v>34.17060330831023</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>35.75390235580473</v>
+        <v>38.03907250811631</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>39.98183215169057</v>
+        <v>41.00773181156371</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>11.29641582652772</v>
+        <v>-0.9614324065135946</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.35931753255192</v>
+        <v>23.01244454683762</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>10.39417865700602</v>
+        <v>-1.310751678119132</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>27.64858410684128</v>
+        <v>38.86734494054231</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>37.11549303271661</v>
+        <v>55.14213918570612</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.34948183027771</v>
+        <v>56.95034971239252</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>12.54035068919857</v>
+        <v>-6.489138374034027</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.65195460172836</v>
+        <v>32.79454856244972</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>10.75463182276716</v>
+        <v>-6.544905871404424</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.00495631238149</v>
+        <v>35.48374842514946</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>37.4784543286945</v>
+        <v>53.65138101452266</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>41.71122605570953</v>
+        <v>56.55609453429451</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>12.89919713271206</v>
+        <v>-13.5847364929281</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>30.00660179062523</v>
+        <v>27.44805103209812</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>9.888989885849767</v>
+        <v>-4.938623116812543</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>27.14404379754679</v>
+        <v>32.94328970738115</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>36.59337742192219</v>
+        <v>46.87631883085928</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>40.82973227311987</v>
+        <v>52.10831249485171</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>12.03492825484973</v>
+        <v>-12.6892522032982</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.1471851893012</v>
+        <v>21.33926752970572</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>37.1304214126206</v>
+        <v>27.07924000061026</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>41.88232867704511</v>
+        <v>33.21853151823529</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>19.63005351436469</v>
+        <v>-8.451756376034229</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>36.99776973495835</v>
+        <v>21.53832140451368</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>46.7407001190574</v>
+        <v>31.44299510833534</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>51.51825945745947</v>
+        <v>40.38557844570882</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>38.496063113318</v>
+        <v>48.8911847033407</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>43.25577525007957</v>
+        <v>54.32464537819033</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>20.91086501622133</v>
+        <v>-8.925489704413312</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>38.32752490442658</v>
+        <v>38.50191891039641</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>48.14629963330755</v>
+        <v>62.6220520896184</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>52.93011846290355</v>
+        <v>68.58957118001601</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>38.8572084006811</v>
+        <v>43.80729856467934</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>43.6157631214065</v>
+        <v>51.08858950005049</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>21.27412209925501</v>
+        <v>-15.69954448558365</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>38.68636826676487</v>
+        <v>34.59172669102271</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>48.51140055455852</v>
+        <v>59.58599329944681</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>53.29358194124803</v>
+        <v>66.76925478646609</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>37.97375307036122</v>
+        <v>31.21339177797383</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>42.735829861125</v>
+        <v>41.22174129435571</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>20.40132881032868</v>
+        <v>-13.35357776358132</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>37.81886890159838</v>
+        <v>30.30765549586823</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>47.62008836614508</v>
+        <v>48.76733658976224</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>52.40679919080166</v>
+        <v>60.21559951870327</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>28.55786620739649</v>
+        <v>-3.045098106183744</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>46.49938421741801</v>
+        <v>28.45635981773287</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>56.72353764023268</v>
+        <v>34.35444794945094</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>61.53168656501661</v>
+        <v>36.91576704369992</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>31.18385360155509</v>
+        <v>-4.29714769061755</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>48.97012595480489</v>
+        <v>23.2687062408862</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.90439784658146</v>
+        <v>-9.897391036372937</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>47.89719591465611</v>
+        <v>35.31327975837814</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>58.20122496241405</v>
+        <v>55.99835986208235</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>63.0169955735599</v>
+        <v>57.16382872846257</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>32.53828847283945</v>
+        <v>-9.90830061779716</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>50.3752616452112</v>
+        <v>34.55917808983162</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>30.27154620406979</v>
+        <v>-14.94944498113025</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>48.26003865586311</v>
+        <v>32.69463779792394</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>58.57083158516419</v>
+        <v>55.87003211397028</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>63.38540193367084</v>
+        <v>58.11593930531413</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>32.90350656088193</v>
+        <v>-16.69395828193468</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>50.73606527955543</v>
+        <v>30.12689638284335</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.37950412826368</v>
+        <v>-14.5845000621227</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>47.37300333338743</v>
+        <v>28.85370318085091</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>57.65855471743285</v>
+        <v>46.94600067666885</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>62.47679658462003</v>
+        <v>51.69330142875295</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>32.01319531456412</v>
+        <v>-14.43004180035288</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>49.85085985336652</v>
+        <v>25.43196041278227</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>58.52665382214366</v>
+        <v>29.26532331347025</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>63.91425091449542</v>
+        <v>36.12204082713471</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>38.62848469031292</v>
+        <v>-12.72938298079654</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>56.7266748133352</v>
+        <v>20.4079635440336</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>67.27379033013182</v>
+        <v>33.5523391487643</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>72.6590035839295</v>
+        <v>42.61354609419719</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>60.00944592096669</v>
+        <v>55.17569498188678</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>65.40648532382185</v>
+        <v>61.06979495404589</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>40.0196980029352</v>
+        <v>-12.88092502072455</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>58.16889049652808</v>
+        <v>39.39986959424134</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>68.79649258556766</v>
+        <v>69.58253991457704</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>74.1895732358447</v>
+        <v>75.27126723199086</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>60.37690003020155</v>
+        <v>51.51695292015269</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>65.77276978655476</v>
+        <v>59.28056760421519</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>40.39071890055408</v>
+        <v>-19.02797801918604</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>58.53529085010658</v>
+        <v>36.7905037649738</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>69.16928991253066</v>
+        <v>68.44929217900545</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>74.5607410264858</v>
+        <v>75.31305010292043</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>59.46661503448236</v>
+        <v>39.27936232060773</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>64.86615817625091</v>
+        <v>50.08531521186444</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>39.48979476947588</v>
+        <v>-15.29152890130204</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>57.63988875026333</v>
+        <v>33.98096003364506</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>68.24907795350573</v>
+        <v>57.95694479039037</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>73.64516726368046</v>
+        <v>69.49075740969717</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>81.12273831180373</v>
+        <v>6.282880471986248</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>100.0529251719017</v>
+        <v>31.12075467508987</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>111.8231682992461</v>
+        <v>38.11752075494253</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>117.6850353612475</v>
+        <v>40.22538978718039</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>83.88276759091961</v>
+        <v>4.260392740702097</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>102.6572242697347</v>
+        <v>25.55820928149291</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>82.70650138658168</v>
+        <v>-0.07389101970323786</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>101.6923774142772</v>
+        <v>37.77225525604236</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>113.5526053467232</v>
+        <v>59.13050232648345</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>119.4235350996874</v>
+        <v>60.10032919846724</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>85.47477753986138</v>
+        <v>-1.189932407074174</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>104.3042900659133</v>
+        <v>36.12515387879701</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>83.07678334158163</v>
+        <v>-4.463182812641428</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>102.0586489499892</v>
+        <v>35.75816333462746</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>113.9262387252874</v>
+        <v>59.44009151975783</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>119.7953664372264</v>
+        <v>61.48492950015722</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>85.84299593441065</v>
+        <v>-7.276424006136779</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>104.6683618636573</v>
+        <v>32.32826657842566</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>82.15039667293176</v>
+        <v>-3.947890225527789</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>101.1364927458478</v>
+        <v>32.39150280661307</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>112.9761548374315</v>
+        <v>51.02469727882715</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>118.8501272855391</v>
+        <v>55.27633329531558</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>84.91848869494086</v>
+        <v>-4.398953473116215</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>103.7482234501335</v>
+        <v>28.75436158265914</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>113.6768477713131</v>
+        <v>31.95252655734809</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>120.1850831844222</v>
+        <v>38.71779589990229</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>91.06735605820961</v>
+        <v>-4.143664457738527</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>110.2389930979916</v>
+        <v>22.95361800032276</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>122.3521731337123</v>
+        <v>36.53615020793445</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>128.8687393982847</v>
+        <v>44.88020110486165</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>115.4113824376479</v>
+        <v>56.80487068392285</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>121.9307332996584</v>
+        <v>62.82763378042313</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>92.70065657712128</v>
+        <v>-3.294462111329953</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>111.9277534950321</v>
+        <v>41.92873045511234</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>124.1315316942581</v>
+        <v>72.28641468292275</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>130.6574330563269</v>
+        <v>77.60245051411263</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>115.7826888919773</v>
+        <v>53.75025599321475</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>122.3002778400059</v>
+        <v>61.60053459447659</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>93.07660633531309</v>
+        <v>-8.705050506874521</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>112.299297503562</v>
+        <v>39.92465180061343</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>124.5100217981864</v>
+        <v>71.71196005365223</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>131.0336325396796</v>
+        <v>78.20432835625363</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>114.834813246233</v>
+        <v>42.78997661889331</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>121.3572367220856</v>
+        <v>53.39995386677276</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>92.13775124511719</v>
+        <v>-5.498067786718682</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>111.3653324531931</v>
+        <v>37.09378780666409</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>123.5486215264713</v>
+        <v>61.21455525474602</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>130.0781786028692</v>
+        <v>72.02985169482972</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>23.91875694268297</v>
+        <v>-2.974010354795276</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>41.89287087370907</v>
+        <v>26.49486024697811</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>52.08893605644754</v>
+        <v>29.55131985188277</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>56.71989401911409</v>
+        <v>32.25268485948568</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.31988911495608</v>
+        <v>-6.332649868379377</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>44.14193952763725</v>
+        <v>20.01619709627115</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>25.25962444923962</v>
+        <v>-6.933095641892539</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>43.28545770817239</v>
+        <v>36.18295721214893</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>53.5616120144332</v>
+        <v>52.73917931108718</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>58.19940471325901</v>
+        <v>53.95139426087522</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>27.66779301806471</v>
+        <v>-9.523597226147579</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>45.54095642290164</v>
+        <v>33.78086152208004</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.63019334758551</v>
+        <v>-11.61270074654519</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>43.65180205629402</v>
+        <v>33.64839250495822</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>53.93484547384826</v>
+        <v>52.49484217706802</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>58.57135992423727</v>
+        <v>54.82070782571776</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.03648701209185</v>
+        <v>-16.16102621859775</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>45.90530521741499</v>
+        <v>29.20817363188175</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>24.732438662837</v>
+        <v>-13.23176166266535</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>42.75885716093848</v>
+        <v>27.1516039490501</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>53.01643676405011</v>
+        <v>41.5743422699589</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>57.6567706093235</v>
+        <v>46.63532816198051</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>27.14049999440136</v>
+        <v>-17.22902657922447</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>45.01425021247478</v>
+        <v>20.36339773326424</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>53.6778673742701</v>
+        <v>22.75757786528035</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>58.86943040366321</v>
+        <v>27.60543055868974</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>34.27369822030509</v>
+        <v>-13.2181318292679</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>52.41599681480838</v>
+        <v>17.95413924549836</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>62.94914022447183</v>
+        <v>26.93418478936421</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>68.15981022266095</v>
+        <v>35.08540847800066</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>55.15478697929895</v>
+        <v>49.52605183243719</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>60.35501373321326</v>
+        <v>53.31770669177251</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>35.6591427334443</v>
+        <v>-11.30267691655679</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>53.85282767353578</v>
+        <v>39.06710890357122</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>64.46677706034522</v>
+        <v>63.19674806760568</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>69.68450943008818</v>
+        <v>67.98528120437324</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>55.52591619419416</v>
+        <v>45.49862862886391</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>60.72491774344068</v>
+        <v>51.20278079532866</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>36.03311374765558</v>
+        <v>-17.67444575749305</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>54.22223384556944</v>
+        <v>35.93232886524867</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>64.84271671769133</v>
+        <v>61.2113750260272</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>70.0587349734222</v>
+        <v>67.26474395133449</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>54.60955246832812</v>
+        <v>29.92584490950118</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>59.81233236647984</v>
+        <v>38.82813669308926</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>35.12718506205657</v>
+        <v>-17.45213572263222</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>53.3216876318015</v>
+        <v>28.72676766703355</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>63.91710195784229</v>
+        <v>47.2870502267966</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>69.13792465000243</v>
+        <v>58.13135461565739</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>9.841196872890926</v>
+        <v>-3.782934210362811</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>26.64445198241204</v>
+        <v>9.193993718358696</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>36.25120258014793</v>
+        <v>13.21729366876841</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>40.63718592681347</v>
+        <v>16.09763557076817</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>12.60901944147839</v>
+        <v>-1.890191581721204</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.28418338164463</v>
+        <v>12.9917721585131</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>11.08636519029177</v>
+        <v>-11.32313395554338</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>27.93789812180989</v>
+        <v>14.07092910033737</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>37.61983002479232</v>
+        <v>30.67728325411643</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>42.01303613461545</v>
+        <v>32.49166793747987</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>13.86250322290235</v>
+        <v>-5.120471245712416</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.585422890091</v>
+        <v>25.39211033043642</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>11.44735506726049</v>
+        <v>-17.10039839304907</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.29489257540639</v>
+        <v>10.45492720065749</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>37.98312538422146</v>
+        <v>29.04076968615937</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>42.37542636160478</v>
+        <v>31.96976507555455</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>14.22157697940119</v>
+        <v>-11.90758167207639</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>30.94038109621798</v>
+        <v>20.6443590595479</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>10.57841100980738</v>
+        <v>-16.03727455895104</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>27.43051109159114</v>
+        <v>7.454564104558894</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>37.09500694310451</v>
+        <v>22.04445645068997</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>41.49038748169552</v>
+        <v>27.31655677216274</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>13.35434300635998</v>
+        <v>-10.81615111080911</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>30.07782806343225</v>
+        <v>14.93521489312499</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>38.23553687093001</v>
+        <v>14.49869514440166</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>43.18023105180443</v>
+        <v>22.95259819946423</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>20.61001883053545</v>
+        <v>-8.377973949735534</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>37.57619239971014</v>
+        <v>12.43206855423924</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>47.49005602977411</v>
+        <v>19.57230744595423</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>52.43245574943631</v>
+        <v>29.58448907588177</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>39.60986183885337</v>
+        <v>39.34478129865103</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>44.56353633890016</v>
+        <v>47.29951959146936</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>21.9007403226729</v>
+        <v>-4.376499816176825</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>38.91494635822856</v>
+        <v>34.20807181762186</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>48.90464244453122</v>
+        <v>56.28481041721183</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>53.85453724617476</v>
+        <v>63.56935714581527</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>39.97104272843087</v>
+        <v>35.04856488500403</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>44.92384407686147</v>
+        <v>44.92069075422089</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>22.26493758936106</v>
+        <v>-10.37685783287749</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>39.27484424626924</v>
+        <v>31.38748694141904</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>49.27051279901277</v>
+        <v>54.54484019269544</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>54.21909560063099</v>
+        <v>63.12403738690121</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>39.08485233858262</v>
+        <v>23.09300910244538</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>44.04073272731993</v>
+        <v>35.75096128267657</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>21.38817586496791</v>
+        <v>-10.18649738512417</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>38.40315008049386</v>
+        <v>25.15938230867136</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>48.37544821082496</v>
+        <v>41.58519850469347</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>53.32802223337942</v>
+        <v>54.50017295947781</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>81.22742751396555</v>
+        <v>-3.04595234808172</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>100.0776494159835</v>
+        <v>17.9498529128161</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>111.8443961198177</v>
+        <v>23.46560928913283</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>117.7012160293114</v>
+        <v>26.4497856183044</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>83.92857400151699</v>
+        <v>-4.727050317564323</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>102.624868105843</v>
+        <v>13.22451130999209</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>82.81044990298474</v>
+        <v>-9.084806905197851</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>101.7161997672408</v>
+        <v>24.87137851801135</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>113.5728112637318</v>
+        <v>44.52041730848977</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>119.4387567678319</v>
+        <v>46.45690770636946</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>85.51978998586233</v>
+        <v>-9.764395582924855</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>104.2709817410296</v>
+        <v>24.17129264866676</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>83.18027555094811</v>
+        <v>-13.32768696544728</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>102.0820523993431</v>
+        <v>23.00992649491475</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>113.946003607655</v>
+        <v>44.93414699224366</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>119.8101684293832</v>
+        <v>47.967328089143</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>85.88760041417129</v>
+        <v>-15.71033717730926</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>104.6346814576405</v>
+        <v>20.51515430061435</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>82.25467882360273</v>
+        <v>-13.22357064654856</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>101.1606227251404</v>
+        <v>19.18118250499336</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>112.9967101874421</v>
+        <v>36.1790942926232</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>118.8656706022483</v>
+        <v>41.39626252371063</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>84.96379409585938</v>
+        <v>-13.18888898521607</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>103.7151825890622</v>
+        <v>16.52026516775518</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>113.6338207893367</v>
+        <v>17.21592564397744</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>120.1381737473137</v>
+        <v>25.58515311711804</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>91.14542361582252</v>
+        <v>-14.34462912815694</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>110.2360464696963</v>
+        <v>9.674741932978012</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>122.3381779713181</v>
+        <v>20.85239879985978</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>128.850621289464</v>
+        <v>30.54868860328257</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>115.3672725777042</v>
+        <v>42.18242000682851</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>121.8828080649555</v>
+        <v>49.94523884045438</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>92.7781346459024</v>
+        <v>-12.70830554490579</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>111.9240558807005</v>
+        <v>29.40862999818744</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>124.1166508403009</v>
+        <v>57.14534278043219</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>130.6385006057492</v>
+        <v>63.95499829999864</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>115.7381886685818</v>
+        <v>39.23631461061812</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>122.2519841977563</v>
+        <v>48.85522556252775</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>93.15370614876817</v>
+        <v>-17.8932259191255</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>112.2952603036858</v>
+        <v>27.63286015882855</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>124.4947848210471</v>
+        <v>56.76764683395845</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>131.0143668326668</v>
+        <v>64.78804989577702</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>114.7910086205643</v>
+        <v>28.03586942961316</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>121.3095890112265</v>
+        <v>40.37329507906291</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>92.21548622747989</v>
+        <v>-15.38902375677787</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>111.3618648538828</v>
+        <v>24.03558210798001</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>123.5340101443708</v>
+        <v>45.60938272457575</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>130.0594859634229</v>
+        <v>57.9155186467714</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>13.81354158261257</v>
+        <v>3.685526372344645</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>31.17896677454911</v>
+        <v>35.16235186009955</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>41.09308844205535</v>
+        <v>45.14495157040113</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>45.26805055408279</v>
+        <v>45.50314847938085</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>16.23536578310964</v>
+        <v>-1.378478274076187</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>33.45476903712382</v>
+        <v>26.51012971305896</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>15.06002616475897</v>
+        <v>-4.832630205951169</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>32.47454354781028</v>
+        <v>39.12734645508365</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>42.46547556708995</v>
+        <v>62.94012038977374</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>46.64673887839622</v>
+        <v>61.91832408198147</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>17.48953215931837</v>
+        <v>-7.851290777855255</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>34.75747079668137</v>
+        <v>35.63954619850745</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>15.41817346286624</v>
+        <v>-9.737090757249518</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>32.82841872951432</v>
+        <v>36.4510547144569</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>42.82580977145066</v>
+        <v>62.64582213350394</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>47.00605624152374</v>
+        <v>62.56372767079781</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>17.84605249790695</v>
+        <v>-13.85129613796103</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>35.10961075330176</v>
+        <v>31.80302566042846</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>14.55600686111215</v>
+        <v>-8.283252697271205</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>31.97140715702964</v>
+        <v>34.34945003939288</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>41.94465146355243</v>
+        <v>55.9654607346781</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>46.12818031271712</v>
+        <v>58.01829931370689</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>16.98521536352953</v>
+        <v>-10.97023178220935</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>34.25403029105201</v>
+        <v>28.49720992988471</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>42.72734491114577</v>
+        <v>35.26150097588241</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>47.44367346202921</v>
+        <v>39.16660950740554</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>23.76968759313529</v>
+        <v>-9.648987885533046</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>41.26714664763547</v>
+        <v>23.72993550938778</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>51.48841457859092</v>
+        <v>38.43263234861428</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>56.21105526474333</v>
+        <v>44.46196093273672</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>44.10471141762475</v>
+        <v>57.77564434154884</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>48.82907159513921</v>
+        <v>60.71524183665625</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>25.05936058872773</v>
+        <v>-10.29859736411331</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>42.60561767951416</v>
+        <v>40.90532610746001</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>52.90422721575545</v>
+        <v>71.14810993706776</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>57.63339609669197</v>
+        <v>73.91998242633774</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>44.46320469415089</v>
+        <v>54.64882535077916</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>49.18658740802772</v>
+        <v>59.26964844250055</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>25.42092102869106</v>
+        <v>-15.75328458528647</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>42.96261900422927</v>
+        <v>38.77459223190792</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>53.26731777636233</v>
+        <v>70.32743428239178</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>57.99506065599672</v>
+        <v>74.12586582933781</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>43.58363627164925</v>
+        <v>44.52508856751635</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>48.31028365623388</v>
+        <v>51.73322666132047</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>24.55069444166185</v>
+        <v>-12.37714535396986</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>42.09802033137339</v>
+        <v>36.30451299777239</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>52.3790173767104</v>
+        <v>60.97662094156113</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>57.1109645710695</v>
+        <v>68.91194071554742</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>17.66272307946794</v>
+        <v>-4.806227053842775</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>35.62933911914129</v>
+        <v>24.72589536671236</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>45.75290221266302</v>
+        <v>28.74079158114743</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>50.27203912551964</v>
+        <v>31.09618130853618</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>20.09814306970635</v>
+        <v>-6.468477603818243</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>37.9114800544493</v>
+        <v>19.79759448397186</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>18.98419659567134</v>
+        <v>-8.042469663159689</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>37.00231936152914</v>
+        <v>35.22461174267043</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>47.2053213425855</v>
+        <v>52.54900240294755</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>51.73116875633632</v>
+        <v>53.41885216946309</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>21.42670002764504</v>
+        <v>-9.550826108870446</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>39.2909420187147</v>
+        <v>33.7010525763772</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>19.35662637496315</v>
+        <v>-12.40682635037627</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>37.3704541704367</v>
+        <v>33.05727919227746</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>47.58029677457509</v>
+        <v>52.67590594074698</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>52.10496173544144</v>
+        <v>54.66375326655325</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>21.79724569027782</v>
+        <v>-15.96143165579259</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>39.65707612881938</v>
+        <v>29.4087292869493</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>18.45756769534722</v>
+        <v>-14.32081692659307</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>36.47633791250182</v>
+        <v>26.26791328972093</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>46.66093861035448</v>
+        <v>41.76601870666046</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>51.18925817826623</v>
+        <v>46.48053857856135</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>20.89999028986286</v>
+        <v>-16.74672237892978</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>38.76487931705272</v>
+        <v>20.90034219666415</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>47.38072043689287</v>
+        <v>22.49557493940656</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>52.45772647128967</v>
+        <v>27.74956246164957</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>28.01238818951612</v>
+        <v>-14.74417219807538</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>46.13309534963952</v>
+        <v>16.05623926372281</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>56.58604161057538</v>
+        <v>24.22884107406188</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>61.68073181666057</v>
+        <v>32.74864006492665</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>48.83745828207165</v>
+        <v>49.27573949966191</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>53.92298001083689</v>
+        <v>53.47540358917648</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>29.37787287839375</v>
+        <v>-12.59217168238602</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>47.54974474157127</v>
+        <v>37.43532164836225</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>58.08281465497787</v>
+        <v>60.65465675779492</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>63.18445516519562</v>
+        <v>65.81091746236147</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>49.2103250291228</v>
+        <v>45.56378867771507</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>54.29471297402262</v>
+        <v>51.66173034342653</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>29.75353020897245</v>
+        <v>-18.73558865129453</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>47.92077874826417</v>
+        <v>34.57672751844266</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>58.46033298208211</v>
+        <v>58.98996099427495</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>63.56036246665982</v>
+        <v>65.4010378505623</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>48.29303850843414</v>
+        <v>30.57928501107282</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>53.38104904566062</v>
+        <v>39.87057822945954</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>28.84667286705038</v>
+        <v>-18.47169240105369</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>47.01941338876271</v>
+        <v>27.44545892668757</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>57.5341252283915</v>
+        <v>45.34283876280097</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>62.6387784324869</v>
+        <v>56.56035826842363</v>
       </c>
     </row>
   </sheetData>
